--- a/automate.xlsx
+++ b/automate.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\microchip\harmony\v2_06\apps\MINF\TP\MINF_TP1_PWM-AD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9203E733-A1E8-451E-80D1-AA60E144FF29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E8A563-1D34-4A9B-B93E-2C4338ACAAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A001575-BE7A-43A6-A2B3-DCE252667105}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,11 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9FD7A1-4977-46F1-8905-CF02D388E263}">
-  <dimension ref="B2:O16"/>
+  <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,6 +581,10 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
+      <c r="F12">
+        <f>1/F13</f>
+        <v>50</v>
+      </c>
       <c r="H12" t="s">
         <v>4</v>
       </c>
@@ -588,6 +593,10 @@
       </c>
       <c r="K12" t="s">
         <v>4</v>
+      </c>
+      <c r="L12">
+        <f>1/L13</f>
+        <v>142.85714285714286</v>
       </c>
       <c r="N12" t="s">
         <v>4</v>
@@ -604,8 +613,8 @@
         <v>5</v>
       </c>
       <c r="I13">
-        <f>1/I12</f>
-        <v>2.5000000000000001E-5</v>
+        <f>(1/I12)/2</f>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="K13" t="s">
         <v>5</v>
@@ -617,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="O13">
-        <v>0.02</v>
+        <v>3.4999999999999997E-5</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
@@ -659,7 +668,7 @@
       </c>
       <c r="I16">
         <f>C2/(I15*(1/I13))-1</f>
-        <v>249</v>
+        <v>124</v>
       </c>
       <c r="K16" t="s">
         <v>3</v>
@@ -673,7 +682,12 @@
       </c>
       <c r="O16">
         <f>C2/(O15*(1/O13))-1</f>
-        <v>199999</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="2">
+        <v>1.2500000000000001E-5</v>
       </c>
     </row>
   </sheetData>
